--- a/main/ig/eclaire-study-status-concept-map.xlsx
+++ b/main/ig/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-14T13:53:10+00:00</t>
+    <t>2025-05-20T16:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/main/ig/eclaire-study-status-concept-map.xlsx
+++ b/main/ig/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:40:38+00:00</t>
+    <t>2025-07-17T13:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/eclaire-study-status-concept-map.xlsx
+++ b/main/ig/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T13:20:13+00:00</t>
+    <t>2025-07-21T12:46:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/eclaire-study-status-concept-map.xlsx
+++ b/main/ig/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T12:46:15+00:00</t>
+    <t>2025-07-21T16:33:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/eclaire-study-status-concept-map.xlsx
+++ b/main/ig/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:33:38+00:00</t>
+    <t>2025-07-21T16:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/eclaire-study-status-concept-map.xlsx
+++ b/main/ig/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:40:50+00:00</t>
+    <t>2025-07-21T16:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/eclaire-study-status-concept-map.xlsx
+++ b/main/ig/eclaire-study-status-concept-map.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:46:46+00:00</t>
+    <t>2025-07-25T15:44:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
